--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -2638,7 +2638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,6 +2646,7 @@
     <col min="1" max="1" width="5.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2751,13 +2752,16 @@
         <v>97</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
       <c r="J5">
         <f>COUNTIF(E4:E45, "done")</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <f>COUNTIF(E4:E45,"in progress")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f>COUNTIF(E4:E45,"*blocked*")</f>
@@ -2765,7 +2769,7 @@
       </c>
       <c r="M5">
         <f>ROWS(E4:E45)-L5-K5-J5</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P5">
         <f>COUNTIF(F4:F45, "done")</f>
@@ -2826,6 +2830,9 @@
         <v>100</v>
       </c>
       <c r="C8" s="2"/>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
@@ -2835,6 +2842,9 @@
         <v>101</v>
       </c>
       <c r="C9" s="2"/>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2909,6 +2919,9 @@
         <v>108</v>
       </c>
       <c r="C16" s="2"/>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2963,6 +2976,9 @@
         <v>114</v>
       </c>
       <c r="C22" s="2"/>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -2992,6 +3008,9 @@
       <c r="C25" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -3037,6 +3056,9 @@
         <v>121</v>
       </c>
       <c r="C29" s="2"/>
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -3046,6 +3068,9 @@
         <v>122</v>
       </c>
       <c r="C30" s="2"/>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -3065,7 +3090,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3074,7 +3099,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3083,7 +3108,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3092,7 +3117,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3101,7 +3126,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3110,7 +3135,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3119,7 +3144,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3128,7 +3153,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3137,7 +3162,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3146,7 +3171,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3155,7 +3180,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>40</v>
       </c>
@@ -3164,7 +3189,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3172,8 +3197,11 @@
         <v>136</v>
       </c>
       <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>42</v>
       </c>

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\OceanCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_C4D89AC3B2AEC7C38ADF4CBE8ABC9799C652F246" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AF7EA60A-72A6-4420-9311-8E523B1F1EB3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Truckers " sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Steamship Lines'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Truckers '!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="174">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -568,7 +569,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -1276,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1795,7 +1796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2633,12 +2634,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2762,7 @@
       </c>
       <c r="K5">
         <f>COUNTIF(E4:E45,"in progress")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <f>COUNTIF(E4:E45,"*blocked*")</f>
@@ -2769,11 +2770,11 @@
       </c>
       <c r="M5">
         <f>ROWS(E4:E45)-L5-K5-J5</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5">
         <f>COUNTIF(F4:F45, "done")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <f>COUNTIF(F4:F45, "in progress")</f>
@@ -2785,11 +2786,11 @@
       </c>
       <c r="S5">
         <f>ROWS(F4:F45)-P5-Q5-R5</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V5">
         <f>COUNTIF(G4:G45, "done")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <f>COUNTIF(G4:G45, "in progress")</f>
@@ -2801,7 +2802,7 @@
       </c>
       <c r="Y5">
         <f>ROWS(G4:G45)-V5-W5-X5</f>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2882,13 +2883,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -3059,6 +3054,12 @@
       <c r="E29" t="s">
         <v>155</v>
       </c>
+      <c r="F29" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -3090,7 +3091,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3099,7 +3100,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3108,7 +3109,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3117,7 +3118,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3135,7 +3136,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3144,7 +3145,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3153,7 +3154,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3162,7 +3163,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3171,7 +3172,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3180,7 +3181,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>40</v>
       </c>
@@ -3189,7 +3190,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>42</v>
       </c>
@@ -3209,6 +3210,15 @@
         <v>137</v>
       </c>
       <c r="C45" s="2"/>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3217,7 +3227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3295,9 +3305,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A8" r:id="rId2" display="mailto:railincsupport@railinc.com"/>
-    <hyperlink ref="A12" r:id="rId3" display="mailto:michael.bowser@railinc.com"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" display="mailto:railincsupport@railinc.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="mailto:michael.bowser@railinc.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\OceanCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_C4D89AC3B2AEC7C38ADF4CBE8ABC9799C652F246" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AF7EA60A-72A6-4420-9311-8E523B1F1EB3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Truckers " sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Steamship Lines'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Truckers '!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -564,12 +563,15 @@
   </si>
   <si>
     <t>script in progress</t>
+  </si>
+  <si>
+    <t>blocked by no data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -1277,7 +1279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1796,7 +1798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2634,12 +2636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,15 +2768,15 @@
       </c>
       <c r="L5">
         <f>COUNTIF(E4:E45,"*blocked*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <f>ROWS(E4:E45)-L5-K5-J5</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P5">
         <f>COUNTIF(F4:F45, "done")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <f>COUNTIF(F4:F45, "in progress")</f>
@@ -2786,11 +2788,11 @@
       </c>
       <c r="S5">
         <f>ROWS(F4:F45)-P5-Q5-R5</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V5">
         <f>COUNTIF(G4:G45, "done")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f>COUNTIF(G4:G45, "in progress")</f>
@@ -2802,7 +2804,7 @@
       </c>
       <c r="Y5">
         <f>ROWS(G4:G45)-V5-W5-X5</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2896,6 +2898,9 @@
       <c r="C14" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3054,12 +3059,6 @@
       <c r="E29" t="s">
         <v>155</v>
       </c>
-      <c r="F29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -3090,8 +3089,11 @@
         <v>124</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3100,7 +3102,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3109,7 +3111,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3118,7 +3120,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3127,7 +3129,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3136,7 +3138,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3145,7 +3147,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3154,7 +3156,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3163,7 +3165,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3172,7 +3174,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3181,7 +3183,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>40</v>
       </c>
@@ -3190,7 +3192,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>42</v>
       </c>
@@ -3211,13 +3213,7 @@
       </c>
       <c r="C45" s="2"/>
       <c r="E45" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" t="s">
-        <v>155</v>
-      </c>
-      <c r="G45" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3227,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3305,9 +3301,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A8" r:id="rId2" display="mailto:railincsupport@railinc.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" display="mailto:michael.bowser@railinc.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A8" r:id="rId2" display="mailto:railincsupport@railinc.com"/>
+    <hyperlink ref="A12" r:id="rId3" display="mailto:michael.bowser@railinc.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\OceanCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blume-proj\OceanCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2641,7 +2641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,11 +2760,11 @@
       </c>
       <c r="J5">
         <f>COUNTIF(E4:E45, "done")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5">
         <f>COUNTIF(E4:E45,"in progress")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f>COUNTIF(E4:E45,"*blocked*")</f>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\blume-proj\OceanCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\OceanCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="178">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -566,6 +566,15 @@
   </si>
   <si>
     <t>blocked by no data</t>
+  </si>
+  <si>
+    <t>blocked by no site</t>
+  </si>
+  <si>
+    <t>blocked by unsupported tool</t>
+  </si>
+  <si>
+    <t>blocked by broken tool</t>
   </si>
 </sst>
 </file>
@@ -2641,7 +2650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2701,6 +2710,9 @@
         <v>96</v>
       </c>
       <c r="C4" s="7"/>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
       <c r="I4" t="s">
         <v>160</v>
       </c>
@@ -2760,19 +2772,19 @@
       </c>
       <c r="J5">
         <f>COUNTIF(E4:E45, "done")</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <f>COUNTIF(E4:E45,"in progress")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f>COUNTIF(E4:E45,"*blocked*")</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M5">
         <f>ROWS(E4:E45)-L5-K5-J5</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="P5">
         <f>COUNTIF(F4:F45, "done")</f>
@@ -2815,6 +2827,9 @@
         <v>98</v>
       </c>
       <c r="C6" s="2"/>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2824,6 +2839,9 @@
         <v>99</v>
       </c>
       <c r="C7" s="2"/>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
@@ -2857,6 +2875,9 @@
         <v>102</v>
       </c>
       <c r="C10" s="2"/>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2866,6 +2887,9 @@
         <v>103</v>
       </c>
       <c r="C11" s="2"/>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -2875,6 +2899,9 @@
         <v>104</v>
       </c>
       <c r="C12" s="2"/>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -2885,7 +2912,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2910,6 +2937,9 @@
         <v>107</v>
       </c>
       <c r="C15" s="2"/>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
@@ -2931,6 +2961,9 @@
         <v>109</v>
       </c>
       <c r="C17" s="2"/>
+      <c r="E17" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2940,6 +2973,9 @@
         <v>110</v>
       </c>
       <c r="C18" s="2"/>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -3029,6 +3065,9 @@
         <v>119</v>
       </c>
       <c r="C27" s="2"/>
+      <c r="E27" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
@@ -3080,6 +3119,9 @@
         <v>123</v>
       </c>
       <c r="C31" s="2"/>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
@@ -3110,6 +3152,9 @@
         <v>126</v>
       </c>
       <c r="C34" s="2"/>
+      <c r="E34" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -3128,6 +3173,9 @@
         <v>128</v>
       </c>
       <c r="C36" s="2"/>
+      <c r="E36" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -3146,6 +3194,9 @@
         <v>130</v>
       </c>
       <c r="C38" s="2"/>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -3182,6 +3233,9 @@
         <v>134</v>
       </c>
       <c r="C42" s="2"/>
+      <c r="E42" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
@@ -3191,6 +3245,9 @@
         <v>135</v>
       </c>
       <c r="C43" s="2"/>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="178">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -2650,7 +2650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="J5">
         <f>COUNTIF(E4:E45, "done")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <f>COUNTIF(E4:E45,"in progress")</f>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="L5">
         <f>COUNTIF(E4:E45,"*blocked*")</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M5">
         <f>ROWS(E4:E45)-L5-K5-J5</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P5">
         <f>COUNTIF(F4:F45, "done")</f>
@@ -2985,6 +2985,9 @@
         <v>111</v>
       </c>
       <c r="C19" s="2"/>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2994,6 +2997,9 @@
         <v>112</v>
       </c>
       <c r="C20" s="2"/>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -3003,6 +3009,9 @@
         <v>113</v>
       </c>
       <c r="C21" s="2"/>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
@@ -3024,6 +3033,9 @@
         <v>115</v>
       </c>
       <c r="C23" s="2"/>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -3033,6 +3045,9 @@
         <v>116</v>
       </c>
       <c r="C24" s="2"/>
+      <c r="E24" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
@@ -3056,6 +3071,9 @@
         <v>118</v>
       </c>
       <c r="C26" s="2"/>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -3143,6 +3161,9 @@
         <v>125</v>
       </c>
       <c r="C33" s="2"/>
+      <c r="E33" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="178">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -2650,7 +2650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="J5">
         <f>COUNTIF(E4:E45, "done")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <f>COUNTIF(E4:E45,"in progress")</f>
@@ -2780,11 +2780,11 @@
       </c>
       <c r="L5">
         <f>COUNTIF(E4:E45,"*blocked*")</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5">
         <f>ROWS(E4:E45)-L5-K5-J5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <f>COUNTIF(F4:F45, "done")</f>
@@ -3185,6 +3185,9 @@
         <v>127</v>
       </c>
       <c r="C35" s="2"/>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -3206,6 +3209,9 @@
         <v>129</v>
       </c>
       <c r="C37" s="2"/>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
@@ -3227,6 +3233,9 @@
         <v>131</v>
       </c>
       <c r="C39" s="2"/>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
@@ -3236,6 +3245,9 @@
         <v>132</v>
       </c>
       <c r="C40" s="2"/>
+      <c r="E40" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -3245,6 +3257,9 @@
         <v>133</v>
       </c>
       <c r="C41" s="2"/>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\OceanCarrierRPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Truckers " sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="180">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>blocked by broken tool</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N = direct integration</t>
   </si>
 </sst>
 </file>
@@ -2646,11 +2652,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,8 +2772,13 @@
       <c r="B5" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
         <v>155</v>
       </c>
       <c r="J5">
@@ -2788,7 +2799,7 @@
       </c>
       <c r="P5">
         <f>COUNTIF(F4:F45, "done")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <f>COUNTIF(F4:F45, "in progress")</f>
@@ -2800,7 +2811,7 @@
       </c>
       <c r="S5">
         <f>ROWS(F4:F45)-P5-Q5-R5</f>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="V5">
         <f>COUNTIF(G4:G45, "done")</f>
@@ -2850,8 +2861,13 @@
       <c r="B8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2866,6 +2882,9 @@
       <c r="E9" t="s">
         <v>155</v>
       </c>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2910,7 +2929,9 @@
       <c r="B13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E13" t="s">
         <v>155</v>
       </c>
@@ -2948,7 +2969,9 @@
       <c r="B16" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E16" t="s">
         <v>155</v>
       </c>
@@ -2984,7 +3007,9 @@
       <c r="B19" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E19" t="s">
         <v>177</v>
       </c>
@@ -3020,7 +3045,9 @@
       <c r="B22" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E22" t="s">
         <v>155</v>
       </c>
@@ -3062,6 +3089,9 @@
       <c r="E25" t="s">
         <v>155</v>
       </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -3094,7 +3124,9 @@
       <c r="B28" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E28" t="s">
         <v>155</v>
       </c>
@@ -3112,7 +3144,9 @@
       <c r="B29" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E29" t="s">
         <v>155</v>
       </c>
@@ -3128,6 +3162,9 @@
       <c r="E30" t="s">
         <v>155</v>
       </c>
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -3153,7 +3190,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3165,7 +3202,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3177,7 +3214,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3189,7 +3226,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3201,7 +3238,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3213,7 +3250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3225,7 +3262,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -3237,7 +3274,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -3249,7 +3286,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -3261,7 +3298,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -3273,7 +3310,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>40</v>
       </c>
@@ -3285,7 +3322,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -3296,17 +3333,27 @@
       <c r="E44" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>42</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E45" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/RPAAirAndOceanCarrierStatuses.xlsx
+++ b/RPAAirAndOceanCarrierStatuses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\OceanCarrierRPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
   <si>
     <t>V-00181--ITG TRANSPORTATION SERVICES INC</t>
   </si>
@@ -2656,7 +2656,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +2878,9 @@
       <c r="B9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E9" t="s">
         <v>155</v>
       </c>
@@ -3084,7 +3086,7 @@
         <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E25" t="s">
         <v>155</v>
@@ -3158,7 +3160,9 @@
       <c r="B30" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E30" t="s">
         <v>155</v>
       </c>
@@ -3185,7 +3189,9 @@
       <c r="B32" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E32" t="s">
         <v>174</v>
       </c>
@@ -3329,7 +3335,9 @@
       <c r="B44" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E44" t="s">
         <v>155</v>
       </c>
